--- a/ExcelData/SpritTable.xlsx
+++ b/ExcelData/SpritTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74480DF-7006-4344-9F15-D7054DB90B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17865" yWindow="3795" windowWidth="13650" windowHeight="10800"/>
+    <workbookView minimized="1" xWindow="-16620" yWindow="4155" windowWidth="13650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
@@ -23,19 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC-07</author>
     <author>sangmin Lee</author>
@@ -43,7 +37,7 @@
     <author>강민수</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="2" shapeId="0">
+    <comment ref="P2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="3" shapeId="0">
+    <comment ref="Q2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="2" shapeId="0">
+    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="2" shapeId="0">
+    <comment ref="L3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -681,7 +675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -1302,14 +1296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2398,7 +2392,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:R5"/>
+  <autoFilter ref="B5:R5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
